--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1929713.473498039</v>
+        <v>-1931663.6993266</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15817944.0804746</v>
+        <v>15817944.08047461</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>358.0724630347371</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>42.43265788945332</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>238.7381236793301</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.9127841695112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>162.0255331764653</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.461970681989216</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>98.69696124786135</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.6395982067212</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>116.1430940756183</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>118.3167770327489</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>141.4106407312801</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>194.3948856720723</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>67.00090002953034</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>166.2687365728262</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>24.80172075299125</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527399</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.9131356568045</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>129.5201025231085</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>34.84984876650141</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>51.79025903913173</v>
       </c>
       <c r="F22" t="n">
-        <v>76.03219545093376</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>85.32135912422041</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.24017938133838</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287491</v>
       </c>
       <c r="U28" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593956</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539631</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1159.686289626104</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C2" t="n">
-        <v>1159.686289626104</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D2" t="n">
-        <v>801.4205910193532</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>415.632338421109</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>415.632338421109</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2654.287820422815</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2654.287820422815</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2654.287820422815</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2323.224933079244</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1970.45627780913</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.6828813766</v>
+        <v>1729.306657931019</v>
       </c>
       <c r="Y2" t="n">
-        <v>1546.286129690225</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.8183646524922</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>382.8183646524922</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>382.8183646524922</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S4" t="n">
-        <v>564.4668294827319</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T4" t="n">
-        <v>564.4668294827319</v>
+        <v>2321.694245121008</v>
       </c>
       <c r="U4" t="n">
-        <v>564.4668294827319</v>
+        <v>2032.520634775576</v>
       </c>
       <c r="V4" t="n">
-        <v>564.4668294827319</v>
+        <v>2032.520634775576</v>
       </c>
       <c r="W4" t="n">
-        <v>564.4668294827319</v>
+        <v>2032.520634775576</v>
       </c>
       <c r="X4" t="n">
-        <v>564.4668294827319</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>564.4668294827319</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.529454785695</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.614346584583</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1794.845691314469</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1794.845691314469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2459.129294849817</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447962</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1723320447962</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>523.9767328260587</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>196.7820128620615</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2105.978465928625</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1774.915578585054</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1422.14692331494</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1422.14692331494</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.027325963587</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C10" t="n">
-        <v>184.027325963587</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>184.027325963587</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>184.027325963587</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="W10" t="n">
-        <v>184.027325963587</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X10" t="n">
-        <v>184.027325963587</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.027325963587</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,31 +5057,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5230,19 +5230,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1219.892948359297</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>965.2084601534104</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>675.7912901164499</v>
+        <v>1362.788923934888</v>
       </c>
       <c r="X13" t="n">
-        <v>447.8017392184325</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184325</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.9958217162124</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0596387883055</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883055</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883055</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1257.012780732749</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1033.227365522255</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1033.227365522255</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>1033.227365522255</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.311772267568</v>
+        <v>1033.227365522255</v>
       </c>
       <c r="X16" t="n">
-        <v>816.3222213695503</v>
+        <v>805.237814624238</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.3222213695503</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5534,10 +5534,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.4856756861153</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>699.5494927582084</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X19" t="n">
-        <v>1270.926719659885</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.134140516355</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>604.14521039576</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="C22" t="n">
-        <v>604.14521039576</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="D22" t="n">
-        <v>604.14521039576</v>
+        <v>429.2403974873376</v>
       </c>
       <c r="E22" t="n">
-        <v>604.14521039576</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>785.7936752259998</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X22" t="n">
-        <v>785.7936752259998</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y22" t="n">
-        <v>785.7936752259998</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,28 +6008,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6072,19 +6072,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>333.8182909469086</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6181,16 +6181,16 @@
         <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.712528333286</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W25" t="n">
-        <v>809.2953582963253</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X25" t="n">
-        <v>809.2953582963253</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y25" t="n">
-        <v>711.072954880832</v>
+        <v>333.8182909469086</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6598,34 +6598,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6783,22 +6783,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083213</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,52 +6856,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7552,7 +7552,7 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,22 +7564,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>55.71170698605786</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>130.992976999139</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>50.12000577355363</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465673</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675406</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>119.9686158257511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>261.7212775835998</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.91884452513276</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>68.40070746049474</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>10.65497486614711</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,16 +23941,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>251.6731495700896</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>94.64370360743744</v>
       </c>
       <c r="F22" t="n">
-        <v>69.38885257199749</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>81.92546197440743</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>121.3444739707564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-3.856914915233551e-13</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1324130.27431121</v>
+        <v>1324130.274311211</v>
       </c>
     </row>
     <row r="3">
@@ -26320,40 +26320,40 @@
         <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>58654.35896065631</v>
+        <v>58654.35896065633</v>
       </c>
       <c r="F2" t="n">
+        <v>58654.3589606563</v>
+      </c>
+      <c r="G2" t="n">
+        <v>58654.35896065629</v>
+      </c>
+      <c r="H2" t="n">
         <v>58654.35896065628</v>
-      </c>
-      <c r="G2" t="n">
-        <v>58654.35896065632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>58654.3589606563</v>
       </c>
       <c r="I2" t="n">
         <v>58654.3589606563</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982131</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982128</v>
       </c>
-      <c r="M2" t="n">
-        <v>61578.13273982127</v>
-      </c>
       <c r="N2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982127</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139160.0369722519</v>
+        <v>139160.036972252</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,22 +26427,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="J5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26503,7 +26503,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-753887.4474275802</v>
+        <v>-754003.400291487</v>
       </c>
       <c r="C6" t="n">
         <v>-186913.8131101126</v>
@@ -26528,25 +26528,25 @@
         <v>-186913.8131101126</v>
       </c>
       <c r="E6" t="n">
-        <v>-580667.6110518272</v>
+        <v>-580765.0701777991</v>
       </c>
       <c r="F6" t="n">
-        <v>-55507.57457493102</v>
+        <v>-55605.03370090324</v>
       </c>
       <c r="G6" t="n">
-        <v>-55507.57457493104</v>
+        <v>-55605.03370090321</v>
       </c>
       <c r="H6" t="n">
-        <v>-55507.57457493104</v>
+        <v>-55605.03370090328</v>
       </c>
       <c r="I6" t="n">
-        <v>-55507.57457493103</v>
+        <v>-55605.03370090321</v>
       </c>
       <c r="J6" t="n">
-        <v>-311659.0992047007</v>
+        <v>-311659.0992047009</v>
       </c>
       <c r="K6" t="n">
-        <v>-80730.3679083953</v>
+        <v>-80730.36790839533</v>
       </c>
       <c r="L6" t="n">
         <v>-80730.36790839533</v>
@@ -26555,13 +26555,13 @@
         <v>-215531.3831422325</v>
       </c>
       <c r="N6" t="n">
-        <v>-80730.3679083953</v>
+        <v>-80730.36790839535</v>
       </c>
       <c r="O6" t="n">
         <v>-135235.8800121078</v>
       </c>
       <c r="P6" t="n">
-        <v>-80730.3679083953</v>
+        <v>-80730.36790839533</v>
       </c>
     </row>
   </sheetData>
@@ -26701,25 +26701,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,22 +26744,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.263256414560601e-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>131.9830549195182</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>140.3251544865424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>229.0552972222736</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.5983404493324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.47237894259408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>100.2678763193459</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>56.82928183621701</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>16.63754732114094</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>158.0342054285539</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>462.5180961366869</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35963,10 +35963,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058697</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36762,13 +36762,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
